--- a/server/excel/url/tjbb(统计报表)_url.xlsx
+++ b/server/excel/url/tjbb(统计报表)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>命令码</t>
   </si>
@@ -125,6 +125,36 @@
   </si>
   <si>
     <t>累计数据详情</t>
+  </si>
+  <si>
+    <t>成本收入-收支异常查询</t>
+  </si>
+  <si>
+    <t>/tjbb/abnormalFetch</t>
+  </si>
+  <si>
+    <t>projectOid:int</t>
+  </si>
+  <si>
+    <t>工程项目ID</t>
+  </si>
+  <si>
+    <t>uiAbnormal</t>
+  </si>
+  <si>
+    <t>收支异常信息</t>
+  </si>
+  <si>
+    <t>资源报表-收支异常查询</t>
+  </si>
+  <si>
+    <t>/tjbb/zybbAbnormalFetch</t>
+  </si>
+  <si>
+    <t>projectOid:int,fbCompanyOid:int</t>
+  </si>
+  <si>
+    <t>工程项目ID,分包商ID</t>
   </si>
 </sst>
 </file>
@@ -163,6 +193,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -172,6 +210,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,12 +248,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -208,16 +306,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,90 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,36 +359,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,31 +413,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,66 +521,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,30 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +544,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,26 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +591,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,162 +644,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,21 +1090,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="22.775" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
-    <col min="8" max="8" width="60.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="30.775" customWidth="1"/>
-    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="60.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="29.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="30.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1242,6 +1272,70 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="3">
+        <v>100105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="3">
+        <v>100106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/excel/url/tjbb(统计报表)_url.xlsx
+++ b/server/excel/url/tjbb(统计报表)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>命令码</t>
   </si>
@@ -156,16 +156,34 @@
   <si>
     <t>工程项目ID,分包商ID</t>
   </si>
+  <si>
+    <t>查询-成本分析</t>
+  </si>
+  <si>
+    <t>/tjbb/cbAnalyze</t>
+  </si>
+  <si>
+    <t>projectOid:int,monthStart:long,monthEnd:long</t>
+  </si>
+  <si>
+    <t>工程项目ID,开始月份,结束月份</t>
+  </si>
+  <si>
+    <t>uiCbAnalyze</t>
+  </si>
+  <si>
+    <t>成本分析</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -193,6 +211,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,6 +264,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,9 +332,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,120 +348,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +371,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,175 +407,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +574,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,15 +594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,26 +613,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,13 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +670,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +682,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,21 +1108,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="$A7:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="22.775" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
-    <col min="8" max="8" width="60.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="29.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="30.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="60.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="30.775" customWidth="1"/>
+    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1336,6 +1354,38 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="3">
+        <v>100107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/excel/url/tjbb(统计报表)_url.xlsx
+++ b/server/excel/url/tjbb(统计报表)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>命令码</t>
   </si>
@@ -174,6 +174,24 @@
   <si>
     <t>成本分析</t>
   </si>
+  <si>
+    <t>查询-分包商统计</t>
+  </si>
+  <si>
+    <t>/tjbb/fbCompanyTj</t>
+  </si>
+  <si>
+    <t>projectOid:int,daysStart:long,daysEnd:long,fbCompanyOid:int,fbGclYsOid:int,pageNum:int,pageSize:int,startOid:int</t>
+  </si>
+  <si>
+    <t>工程项目ID,开始日期,结束日期,分包商ID,分包工程ID,页码,数量,开始编号</t>
+  </si>
+  <si>
+    <t>result:uiFbCompanyTj[],total:long,hj:uiFbCompanyTj</t>
+  </si>
+  <si>
+    <t>分包商统计</t>
+  </si>
 </sst>
 </file>
 
@@ -181,8 +199,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -212,9 +230,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,30 +281,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,99 +343,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,17 +622,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +638,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +671,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,10 +688,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +700,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,21 +1126,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.775" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
-    <col min="8" max="8" width="60.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="29.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="30.775" customWidth="1"/>
-    <col min="12" max="12" width="45.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="60.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="37.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="30.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="45.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1386,6 +1404,38 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="3">
+        <v>100108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
